--- a/HelloExpress/public/team.xlsx
+++ b/HelloExpress/public/team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihyun/Desktop/2019_summer/freeze/HelloExpress/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA57519-C5B7-C247-ABEC-F988CC62F25A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDFD9A2-6A7C-FD40-88C4-9731C0C39CCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{4EA92306-6F7C-3A45-9B00-60A50BA652FD}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
